--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.86163013661475</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H2">
-        <v>6.86163013661475</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I2">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J2">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.99870710932575</v>
+        <v>2.252434</v>
       </c>
       <c r="N2">
-        <v>1.99870710932575</v>
+        <v>6.757302</v>
       </c>
       <c r="O2">
-        <v>0.02894441303086374</v>
+        <v>0.03216586934228027</v>
       </c>
       <c r="P2">
-        <v>0.02894441303086374</v>
+        <v>0.03216586934228027</v>
       </c>
       <c r="Q2">
-        <v>13.71438893561572</v>
+        <v>24.86144900055067</v>
       </c>
       <c r="R2">
-        <v>13.71438893561572</v>
+        <v>223.753041004956</v>
       </c>
       <c r="S2">
-        <v>0.0003402286317367631</v>
+        <v>0.0006006571863508294</v>
       </c>
       <c r="T2">
-        <v>0.0003402286317367631</v>
+        <v>0.0006006571863508295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.86163013661475</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H3">
-        <v>6.86163013661475</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I3">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J3">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>63.6013177085106</v>
+        <v>63.70135733333333</v>
       </c>
       <c r="N3">
-        <v>63.6013177085106</v>
+        <v>191.104072</v>
       </c>
       <c r="O3">
-        <v>0.9210468109473702</v>
+        <v>0.9096868262998634</v>
       </c>
       <c r="P3">
-        <v>0.9210468109473702</v>
+        <v>0.9096868262998633</v>
       </c>
       <c r="Q3">
-        <v>436.4087183171257</v>
+        <v>703.1096345591129</v>
       </c>
       <c r="R3">
-        <v>436.4087183171257</v>
+        <v>6327.986711032017</v>
       </c>
       <c r="S3">
-        <v>0.01082649338647796</v>
+        <v>0.01698725825598831</v>
       </c>
       <c r="T3">
-        <v>0.01082649338647796</v>
+        <v>0.01698725825598831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.86163013661475</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H4">
-        <v>6.86163013661475</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I4">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J4">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.45327079380749</v>
+        <v>0.15646</v>
       </c>
       <c r="N4">
-        <v>3.45327079380749</v>
+        <v>0.46938</v>
       </c>
       <c r="O4">
-        <v>0.05000877602176593</v>
+        <v>0.002234326030104842</v>
       </c>
       <c r="P4">
-        <v>0.05000877602176593</v>
+        <v>0.002234326030104842</v>
       </c>
       <c r="Q4">
-        <v>23.69506694868101</v>
+        <v>1.726941748626667</v>
       </c>
       <c r="R4">
-        <v>23.69506694868101</v>
+        <v>15.54247573764</v>
       </c>
       <c r="S4">
-        <v>0.0005878307990759051</v>
+        <v>4.172323068132108E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005878307990759051</v>
+        <v>4.172323068132108E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>556.3019864208979</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H5">
-        <v>556.3019864208979</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I5">
-        <v>0.9529923577277308</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J5">
-        <v>0.9529923577277308</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.99870710932575</v>
+        <v>0.198506</v>
       </c>
       <c r="N5">
-        <v>1.99870710932575</v>
+        <v>0.595518</v>
       </c>
       <c r="O5">
-        <v>0.02894441303086374</v>
+        <v>0.002834763664399794</v>
       </c>
       <c r="P5">
-        <v>0.02894441303086374</v>
+        <v>0.002834763664399794</v>
       </c>
       <c r="Q5">
-        <v>1111.884735191486</v>
+        <v>2.191028369889334</v>
       </c>
       <c r="R5">
-        <v>1111.884735191486</v>
+        <v>19.719255329004</v>
       </c>
       <c r="S5">
-        <v>0.02758380441732809</v>
+        <v>5.293564891746338E-05</v>
       </c>
       <c r="T5">
-        <v>0.02758380441732809</v>
+        <v>5.293564891746339E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>556.3019864208979</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H6">
-        <v>556.3019864208979</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I6">
-        <v>0.9529923577277308</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J6">
-        <v>0.9529923577277308</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.6013177085106</v>
+        <v>3.716833333333334</v>
       </c>
       <c r="N6">
-        <v>63.6013177085106</v>
+        <v>11.1505</v>
       </c>
       <c r="O6">
-        <v>0.9210468109473702</v>
+        <v>0.05307821466335175</v>
       </c>
       <c r="P6">
-        <v>0.9210468109473702</v>
+        <v>0.05307821466335175</v>
       </c>
       <c r="Q6">
-        <v>35381.53938023108</v>
+        <v>41.02489234322223</v>
       </c>
       <c r="R6">
-        <v>35381.53938023108</v>
+        <v>369.2240310890001</v>
       </c>
       <c r="S6">
-        <v>0.8777505719423419</v>
+        <v>0.0009911689541780022</v>
       </c>
       <c r="T6">
-        <v>0.8777505719423419</v>
+        <v>0.0009911689541780024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>556.3019864208979</v>
+        <v>556.449117</v>
       </c>
       <c r="H7">
-        <v>556.3019864208979</v>
+        <v>1669.347351</v>
       </c>
       <c r="I7">
-        <v>0.9529923577277308</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J7">
-        <v>0.9529923577277308</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.45327079380749</v>
+        <v>2.252434</v>
       </c>
       <c r="N7">
-        <v>3.45327079380749</v>
+        <v>6.757302</v>
       </c>
       <c r="O7">
-        <v>0.05000877602176593</v>
+        <v>0.03216586934228027</v>
       </c>
       <c r="P7">
-        <v>0.05000877602176593</v>
+        <v>0.03216586934228027</v>
       </c>
       <c r="Q7">
-        <v>1921.061402244378</v>
+        <v>1253.364910400778</v>
       </c>
       <c r="R7">
-        <v>1921.061402244378</v>
+        <v>11280.284193607</v>
       </c>
       <c r="S7">
-        <v>0.04765798136806073</v>
+        <v>0.03028152705562397</v>
       </c>
       <c r="T7">
-        <v>0.04765798136806073</v>
+        <v>0.03028152705562398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.27065179967619</v>
+        <v>556.449117</v>
       </c>
       <c r="H8">
-        <v>1.27065179967619</v>
+        <v>1669.347351</v>
       </c>
       <c r="I8">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J8">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99870710932575</v>
+        <v>63.70135733333333</v>
       </c>
       <c r="N8">
-        <v>1.99870710932575</v>
+        <v>191.104072</v>
       </c>
       <c r="O8">
-        <v>0.02894441303086374</v>
+        <v>0.9096868262998634</v>
       </c>
       <c r="P8">
-        <v>0.02894441303086374</v>
+        <v>0.9096868262998633</v>
       </c>
       <c r="Q8">
-        <v>2.539660785490359</v>
+        <v>35446.5640398348</v>
       </c>
       <c r="R8">
-        <v>2.539660785490359</v>
+        <v>319019.0763585132</v>
       </c>
       <c r="S8">
-        <v>6.300428828286729E-05</v>
+        <v>0.8563955150602873</v>
       </c>
       <c r="T8">
-        <v>6.300428828286729E-05</v>
+        <v>0.8563955150602874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.27065179967619</v>
+        <v>556.449117</v>
       </c>
       <c r="H9">
-        <v>1.27065179967619</v>
+        <v>1669.347351</v>
       </c>
       <c r="I9">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J9">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>63.6013177085106</v>
+        <v>0.15646</v>
       </c>
       <c r="N9">
-        <v>63.6013177085106</v>
+        <v>0.46938</v>
       </c>
       <c r="O9">
-        <v>0.9210468109473702</v>
+        <v>0.002234326030104842</v>
       </c>
       <c r="P9">
-        <v>0.9210468109473702</v>
+        <v>0.002234326030104842</v>
       </c>
       <c r="Q9">
-        <v>80.81512880809612</v>
+        <v>87.06202884582001</v>
       </c>
       <c r="R9">
-        <v>80.81512880809612</v>
+        <v>783.55825961238</v>
       </c>
       <c r="S9">
-        <v>0.002004873919435359</v>
+        <v>0.002103434650304038</v>
       </c>
       <c r="T9">
-        <v>0.002004873919435359</v>
+        <v>0.002103434650304039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.27065179967619</v>
+        <v>556.449117</v>
       </c>
       <c r="H10">
-        <v>1.27065179967619</v>
+        <v>1669.347351</v>
       </c>
       <c r="I10">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J10">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.45327079380749</v>
+        <v>0.198506</v>
       </c>
       <c r="N10">
-        <v>3.45327079380749</v>
+        <v>0.595518</v>
       </c>
       <c r="O10">
-        <v>0.05000877602176593</v>
+        <v>0.002834763664399794</v>
       </c>
       <c r="P10">
-        <v>0.05000877602176593</v>
+        <v>0.002834763664399794</v>
       </c>
       <c r="Q10">
-        <v>4.387904748920712</v>
+        <v>110.458488419202</v>
       </c>
       <c r="R10">
-        <v>4.387904748920712</v>
+        <v>994.1263957728179</v>
       </c>
       <c r="S10">
-        <v>0.0001088558036326038</v>
+        <v>0.002668697422301248</v>
       </c>
       <c r="T10">
-        <v>0.0001088558036326038</v>
+        <v>0.002668697422301249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.3080690392176</v>
+        <v>556.449117</v>
       </c>
       <c r="H11">
-        <v>19.3080690392176</v>
+        <v>1669.347351</v>
       </c>
       <c r="I11">
-        <v>0.03307635544362772</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J11">
-        <v>0.03307635544362772</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.99870710932575</v>
+        <v>3.716833333333334</v>
       </c>
       <c r="N11">
-        <v>1.99870710932575</v>
+        <v>11.1505</v>
       </c>
       <c r="O11">
-        <v>0.02894441303086374</v>
+        <v>0.05307821466335175</v>
       </c>
       <c r="P11">
-        <v>0.02894441303086374</v>
+        <v>0.05307821466335175</v>
       </c>
       <c r="Q11">
-        <v>38.59117485603662</v>
+        <v>2068.2286263695</v>
       </c>
       <c r="R11">
-        <v>38.59117485603662</v>
+        <v>18614.0576373255</v>
       </c>
       <c r="S11">
-        <v>0.000957375693516019</v>
+        <v>0.04996878449915884</v>
       </c>
       <c r="T11">
-        <v>0.000957375693516019</v>
+        <v>0.04996878449915886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>19.3080690392176</v>
+        <v>0.3432</v>
       </c>
       <c r="H12">
-        <v>19.3080690392176</v>
+        <v>1.0296</v>
       </c>
       <c r="I12">
-        <v>0.03307635544362772</v>
+        <v>0.0005806364563277943</v>
       </c>
       <c r="J12">
-        <v>0.03307635544362772</v>
+        <v>0.0005806364563277945</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.6013177085106</v>
+        <v>2.252434</v>
       </c>
       <c r="N12">
-        <v>63.6013177085106</v>
+        <v>6.757302</v>
       </c>
       <c r="O12">
-        <v>0.9210468109473702</v>
+        <v>0.03216586934228027</v>
       </c>
       <c r="P12">
-        <v>0.9210468109473702</v>
+        <v>0.03216586934228027</v>
       </c>
       <c r="Q12">
-        <v>1228.018633301136</v>
+        <v>0.7730353488</v>
       </c>
       <c r="R12">
-        <v>1228.018633301136</v>
+        <v>6.957318139200001</v>
       </c>
       <c r="S12">
-        <v>0.030464871699115</v>
+        <v>1.867667638960445E-05</v>
       </c>
       <c r="T12">
-        <v>0.030464871699115</v>
+        <v>1.867667638960446E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3432</v>
+      </c>
+      <c r="H13">
+        <v>1.0296</v>
+      </c>
+      <c r="I13">
+        <v>0.0005806364563277943</v>
+      </c>
+      <c r="J13">
+        <v>0.0005806364563277945</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>63.70135733333333</v>
+      </c>
+      <c r="N13">
+        <v>191.104072</v>
+      </c>
+      <c r="O13">
+        <v>0.9096868262998634</v>
+      </c>
+      <c r="P13">
+        <v>0.9096868262998633</v>
+      </c>
+      <c r="Q13">
+        <v>21.8623058368</v>
+      </c>
+      <c r="R13">
+        <v>196.7607525312</v>
+      </c>
+      <c r="S13">
+        <v>0.0005281973351908304</v>
+      </c>
+      <c r="T13">
+        <v>0.0005281973351908306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3432</v>
+      </c>
+      <c r="H14">
+        <v>1.0296</v>
+      </c>
+      <c r="I14">
+        <v>0.0005806364563277943</v>
+      </c>
+      <c r="J14">
+        <v>0.0005806364563277945</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.15646</v>
+      </c>
+      <c r="N14">
+        <v>0.46938</v>
+      </c>
+      <c r="O14">
+        <v>0.002234326030104842</v>
+      </c>
+      <c r="P14">
+        <v>0.002234326030104842</v>
+      </c>
+      <c r="Q14">
+        <v>0.05369707200000001</v>
+      </c>
+      <c r="R14">
+        <v>0.4832736480000001</v>
+      </c>
+      <c r="S14">
+        <v>1.297331148401024E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.297331148401025E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3432</v>
+      </c>
+      <c r="H15">
+        <v>1.0296</v>
+      </c>
+      <c r="I15">
+        <v>0.0005806364563277943</v>
+      </c>
+      <c r="J15">
+        <v>0.0005806364563277945</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.198506</v>
+      </c>
+      <c r="N15">
+        <v>0.595518</v>
+      </c>
+      <c r="O15">
+        <v>0.002834763664399794</v>
+      </c>
+      <c r="P15">
+        <v>0.002834763664399794</v>
+      </c>
+      <c r="Q15">
+        <v>0.0681272592</v>
+      </c>
+      <c r="R15">
+        <v>0.6131453328000001</v>
+      </c>
+      <c r="S15">
+        <v>1.645967128623889E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.64596712862389E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3432</v>
+      </c>
+      <c r="H16">
+        <v>1.0296</v>
+      </c>
+      <c r="I16">
+        <v>0.0005806364563277943</v>
+      </c>
+      <c r="J16">
+        <v>0.0005806364563277945</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.716833333333334</v>
+      </c>
+      <c r="N16">
+        <v>11.1505</v>
+      </c>
+      <c r="O16">
+        <v>0.05307821466335175</v>
+      </c>
+      <c r="P16">
+        <v>0.05307821466335175</v>
+      </c>
+      <c r="Q16">
+        <v>1.2756172</v>
+      </c>
+      <c r="R16">
+        <v>11.4805548</v>
+      </c>
+      <c r="S16">
+        <v>3.081914647033453E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.081914647033454E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.3080690392176</v>
-      </c>
-      <c r="H13">
-        <v>19.3080690392176</v>
-      </c>
-      <c r="I13">
-        <v>0.03307635544362772</v>
-      </c>
-      <c r="J13">
-        <v>0.03307635544362772</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.45327079380749</v>
-      </c>
-      <c r="N13">
-        <v>3.45327079380749</v>
-      </c>
-      <c r="O13">
-        <v>0.05000877602176593</v>
-      </c>
-      <c r="P13">
-        <v>0.05000877602176593</v>
-      </c>
-      <c r="Q13">
-        <v>66.67599089794878</v>
-      </c>
-      <c r="R13">
-        <v>66.67599089794878</v>
-      </c>
-      <c r="S13">
-        <v>0.001654108050996697</v>
-      </c>
-      <c r="T13">
-        <v>0.001654108050996697</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.955573</v>
+      </c>
+      <c r="I17">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J17">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.252434</v>
+      </c>
+      <c r="N17">
+        <v>6.757302</v>
+      </c>
+      <c r="O17">
+        <v>0.03216586934228027</v>
+      </c>
+      <c r="P17">
+        <v>0.03216586934228027</v>
+      </c>
+      <c r="Q17">
+        <v>2.969889038227333</v>
+      </c>
+      <c r="R17">
+        <v>26.729001344046</v>
+      </c>
+      <c r="S17">
+        <v>7.175306609989982E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.175306609989983E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.955573</v>
+      </c>
+      <c r="I18">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J18">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>63.70135733333333</v>
+      </c>
+      <c r="N18">
+        <v>191.104072</v>
+      </c>
+      <c r="O18">
+        <v>0.9096868262998634</v>
+      </c>
+      <c r="P18">
+        <v>0.9096868262998633</v>
+      </c>
+      <c r="Q18">
+        <v>83.99178971036176</v>
+      </c>
+      <c r="R18">
+        <v>755.9261073932558</v>
+      </c>
+      <c r="S18">
+        <v>0.002029257107374513</v>
+      </c>
+      <c r="T18">
+        <v>0.002029257107374513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.955573</v>
+      </c>
+      <c r="I19">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J19">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.15646</v>
+      </c>
+      <c r="N19">
+        <v>0.46938</v>
+      </c>
+      <c r="O19">
+        <v>0.002234326030104842</v>
+      </c>
+      <c r="P19">
+        <v>0.002234326030104842</v>
+      </c>
+      <c r="Q19">
+        <v>0.2062963171933333</v>
+      </c>
+      <c r="R19">
+        <v>1.85666685474</v>
+      </c>
+      <c r="S19">
+        <v>4.984157015029219E-06</v>
+      </c>
+      <c r="T19">
+        <v>4.98415701502922E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.955573</v>
+      </c>
+      <c r="I20">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J20">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.198506</v>
+      </c>
+      <c r="N20">
+        <v>0.595518</v>
+      </c>
+      <c r="O20">
+        <v>0.002834763664399794</v>
+      </c>
+      <c r="P20">
+        <v>0.002834763664399794</v>
+      </c>
+      <c r="Q20">
+        <v>0.2617349913126666</v>
+      </c>
+      <c r="R20">
+        <v>2.355614921814</v>
+      </c>
+      <c r="S20">
+        <v>6.323565591367699E-06</v>
+      </c>
+      <c r="T20">
+        <v>6.3235655913677E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.955573</v>
+      </c>
+      <c r="I21">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J21">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.716833333333334</v>
+      </c>
+      <c r="N21">
+        <v>11.1505</v>
+      </c>
+      <c r="O21">
+        <v>0.05307821466335175</v>
+      </c>
+      <c r="P21">
+        <v>0.05307821466335175</v>
+      </c>
+      <c r="Q21">
+        <v>4.900735192944444</v>
+      </c>
+      <c r="R21">
+        <v>44.1066167365</v>
+      </c>
+      <c r="S21">
+        <v>0.0001184026647835087</v>
+      </c>
+      <c r="T21">
+        <v>0.0001184026647835087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.927094</v>
+      </c>
+      <c r="H22">
+        <v>65.781282</v>
+      </c>
+      <c r="I22">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J22">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.252434</v>
+      </c>
+      <c r="N22">
+        <v>6.757302</v>
+      </c>
+      <c r="O22">
+        <v>0.03216586934228027</v>
+      </c>
+      <c r="P22">
+        <v>0.03216586934228027</v>
+      </c>
+      <c r="Q22">
+        <v>49.389332046796</v>
+      </c>
+      <c r="R22">
+        <v>444.503988421164</v>
+      </c>
+      <c r="S22">
+        <v>0.00119325535781596</v>
+      </c>
+      <c r="T22">
+        <v>0.001193255357815961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.927094</v>
+      </c>
+      <c r="H23">
+        <v>65.781282</v>
+      </c>
+      <c r="I23">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J23">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>63.70135733333333</v>
+      </c>
+      <c r="N23">
+        <v>191.104072</v>
+      </c>
+      <c r="O23">
+        <v>0.9096868262998634</v>
+      </c>
+      <c r="P23">
+        <v>0.9096868262998633</v>
+      </c>
+      <c r="Q23">
+        <v>1396.785650175589</v>
+      </c>
+      <c r="R23">
+        <v>12571.0708515803</v>
+      </c>
+      <c r="S23">
+        <v>0.03374659854102229</v>
+      </c>
+      <c r="T23">
+        <v>0.03374659854102229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.927094</v>
+      </c>
+      <c r="H24">
+        <v>65.781282</v>
+      </c>
+      <c r="I24">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J24">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.15646</v>
+      </c>
+      <c r="N24">
+        <v>0.46938</v>
+      </c>
+      <c r="O24">
+        <v>0.002234326030104842</v>
+      </c>
+      <c r="P24">
+        <v>0.002234326030104842</v>
+      </c>
+      <c r="Q24">
+        <v>3.43071312724</v>
+      </c>
+      <c r="R24">
+        <v>30.87641814516</v>
+      </c>
+      <c r="S24">
+        <v>8.288666095605247E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.288666095605251E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.927094</v>
+      </c>
+      <c r="H25">
+        <v>65.781282</v>
+      </c>
+      <c r="I25">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J25">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.198506</v>
+      </c>
+      <c r="N25">
+        <v>0.595518</v>
+      </c>
+      <c r="O25">
+        <v>0.002834763664399794</v>
+      </c>
+      <c r="P25">
+        <v>0.002834763664399794</v>
+      </c>
+      <c r="Q25">
+        <v>4.352659721564</v>
+      </c>
+      <c r="R25">
+        <v>39.173937494076</v>
+      </c>
+      <c r="S25">
+        <v>0.0001051610604610901</v>
+      </c>
+      <c r="T25">
+        <v>0.0001051610604610901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>21.927094</v>
+      </c>
+      <c r="H26">
+        <v>65.781282</v>
+      </c>
+      <c r="I26">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J26">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.716833333333334</v>
+      </c>
+      <c r="N26">
+        <v>11.1505</v>
+      </c>
+      <c r="O26">
+        <v>0.05307821466335175</v>
+      </c>
+      <c r="P26">
+        <v>0.05307821466335175</v>
+      </c>
+      <c r="Q26">
+        <v>81.49935388233334</v>
+      </c>
+      <c r="R26">
+        <v>733.4941849410001</v>
+      </c>
+      <c r="S26">
+        <v>0.001969039398761053</v>
+      </c>
+      <c r="T26">
+        <v>0.001969039398761054</v>
       </c>
     </row>
   </sheetData>
